--- a/7/2/2/1/2/Hogares e IPSFL 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/Hogares e IPSFL 2002 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Serie</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -662,7 +665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W75"/>
+  <dimension ref="A1:W76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5927,37 +5930,37 @@
         <v>96</v>
       </c>
       <c r="B75">
-        <v>396556</v>
+        <v>396736</v>
       </c>
       <c r="C75">
-        <v>70011</v>
+        <v>70080</v>
       </c>
       <c r="D75">
-        <v>43197</v>
+        <v>43191</v>
       </c>
       <c r="E75">
-        <v>26813</v>
+        <v>26889</v>
       </c>
       <c r="F75">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="G75">
         <v>4</v>
       </c>
       <c r="H75">
-        <v>657</v>
+        <v>689</v>
       </c>
       <c r="I75">
-        <v>122450</v>
+        <v>122530</v>
       </c>
       <c r="J75">
-        <v>97549</v>
+        <v>97624</v>
       </c>
       <c r="K75">
         <v>12698</v>
       </c>
       <c r="L75">
-        <v>12203</v>
+        <v>12208</v>
       </c>
       <c r="M75">
         <v>158073</v>
@@ -5975,22 +5978,93 @@
         <v>2471</v>
       </c>
       <c r="R75">
-        <v>293526</v>
+        <v>293695</v>
       </c>
       <c r="S75">
-        <v>103030</v>
+        <v>103041</v>
       </c>
       <c r="T75">
-        <v>98242</v>
+        <v>98253</v>
       </c>
       <c r="U75">
         <v>5402</v>
       </c>
       <c r="V75">
-        <v>92840</v>
+        <v>92850</v>
       </c>
       <c r="W75">
         <v>4788</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76">
+        <v>396521</v>
+      </c>
+      <c r="C76">
+        <v>81044</v>
+      </c>
+      <c r="D76">
+        <v>50977</v>
+      </c>
+      <c r="E76">
+        <v>30067</v>
+      </c>
+      <c r="F76">
+        <v>725</v>
+      </c>
+      <c r="G76">
+        <v>4</v>
+      </c>
+      <c r="H76">
+        <v>721</v>
+      </c>
+      <c r="I76">
+        <v>122900</v>
+      </c>
+      <c r="J76">
+        <v>98115</v>
+      </c>
+      <c r="K76">
+        <v>13207</v>
+      </c>
+      <c r="L76">
+        <v>11578</v>
+      </c>
+      <c r="M76">
+        <v>146587</v>
+      </c>
+      <c r="N76">
+        <v>42682</v>
+      </c>
+      <c r="O76">
+        <v>42184</v>
+      </c>
+      <c r="P76">
+        <v>498</v>
+      </c>
+      <c r="Q76">
+        <v>2583</v>
+      </c>
+      <c r="R76">
+        <v>291075</v>
+      </c>
+      <c r="S76">
+        <v>105446</v>
+      </c>
+      <c r="T76">
+        <v>100614</v>
+      </c>
+      <c r="U76">
+        <v>5229</v>
+      </c>
+      <c r="V76">
+        <v>95385</v>
+      </c>
+      <c r="W76">
+        <v>4832</v>
       </c>
     </row>
   </sheetData>

--- a/7/2/2/1/2/Hogares e IPSFL 2002 a 2021 - Trimestral.xlsx
+++ b/7/2/2/1/2/Hogares e IPSFL 2002 a 2021 - Trimestral.xlsx
@@ -58,7 +58,7 @@
     <t>Reservas técnicas de seguros activos</t>
   </si>
   <si>
-    <t>Reservas técnicas de seguros de vida activos</t>
+    <t>Derechos sobre las reservas de seguros de vida, activos</t>
   </si>
   <si>
     <t>Reservas para primas y para siniestros activos</t>
